--- a/BTCPERP.xlsx
+++ b/BTCPERP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7712" uniqueCount="819">
   <si>
     <t>Bid Price</t>
   </si>
@@ -1910,6 +1910,564 @@
   </si>
   <si>
     <t>47553</t>
+  </si>
+  <si>
+    <t>47551</t>
+  </si>
+  <si>
+    <t>47552</t>
+  </si>
+  <si>
+    <t>47549</t>
+  </si>
+  <si>
+    <t>47550</t>
+  </si>
+  <si>
+    <t>47541</t>
+  </si>
+  <si>
+    <t>47594</t>
+  </si>
+  <si>
+    <t>47595</t>
+  </si>
+  <si>
+    <t>47593</t>
+  </si>
+  <si>
+    <t>47591</t>
+  </si>
+  <si>
+    <t>47592</t>
+  </si>
+  <si>
+    <t>47596</t>
+  </si>
+  <si>
+    <t>47598</t>
+  </si>
+  <si>
+    <t>47599</t>
+  </si>
+  <si>
+    <t>47597</t>
+  </si>
+  <si>
+    <t>47601</t>
+  </si>
+  <si>
+    <t>47602</t>
+  </si>
+  <si>
+    <t>47600</t>
+  </si>
+  <si>
+    <t>47609</t>
+  </si>
+  <si>
+    <t>47610</t>
+  </si>
+  <si>
+    <t>47603</t>
+  </si>
+  <si>
+    <t>47608</t>
+  </si>
+  <si>
+    <t>47605</t>
+  </si>
+  <si>
+    <t>47606</t>
+  </si>
+  <si>
+    <t>47604</t>
+  </si>
+  <si>
+    <t>47621</t>
+  </si>
+  <si>
+    <t>47624</t>
+  </si>
+  <si>
+    <t>47615</t>
+  </si>
+  <si>
+    <t>47619</t>
+  </si>
+  <si>
+    <t>47670</t>
+  </si>
+  <si>
+    <t>47671</t>
+  </si>
+  <si>
+    <t>47661</t>
+  </si>
+  <si>
+    <t>47669</t>
+  </si>
+  <si>
+    <t>47675</t>
+  </si>
+  <si>
+    <t>47676</t>
+  </si>
+  <si>
+    <t>47680</t>
+  </si>
+  <si>
+    <t>47681</t>
+  </si>
+  <si>
+    <t>47695</t>
+  </si>
+  <si>
+    <t>47696</t>
+  </si>
+  <si>
+    <t>47674</t>
+  </si>
+  <si>
+    <t>47697</t>
+  </si>
+  <si>
+    <t>47745</t>
+  </si>
+  <si>
+    <t>47746</t>
+  </si>
+  <si>
+    <t>47754</t>
+  </si>
+  <si>
+    <t>47755</t>
+  </si>
+  <si>
+    <t>47711</t>
+  </si>
+  <si>
+    <t>47712</t>
+  </si>
+  <si>
+    <t>47713</t>
+  </si>
+  <si>
+    <t>47714</t>
+  </si>
+  <si>
+    <t>47747</t>
+  </si>
+  <si>
+    <t>47748</t>
+  </si>
+  <si>
+    <t>47743</t>
+  </si>
+  <si>
+    <t>47744</t>
+  </si>
+  <si>
+    <t>47735</t>
+  </si>
+  <si>
+    <t>47736</t>
+  </si>
+  <si>
+    <t>47715</t>
+  </si>
+  <si>
+    <t>47716</t>
+  </si>
+  <si>
+    <t>47706</t>
+  </si>
+  <si>
+    <t>47708</t>
+  </si>
+  <si>
+    <t>47704</t>
+  </si>
+  <si>
+    <t>47705</t>
+  </si>
+  <si>
+    <t>47730</t>
+  </si>
+  <si>
+    <t>47731</t>
+  </si>
+  <si>
+    <t>47723</t>
+  </si>
+  <si>
+    <t>47724</t>
+  </si>
+  <si>
+    <t>47722</t>
+  </si>
+  <si>
+    <t>47729</t>
+  </si>
+  <si>
+    <t>47726</t>
+  </si>
+  <si>
+    <t>47727</t>
+  </si>
+  <si>
+    <t>47737</t>
+  </si>
+  <si>
+    <t>47738</t>
+  </si>
+  <si>
+    <t>47756</t>
+  </si>
+  <si>
+    <t>47757</t>
+  </si>
+  <si>
+    <t>47752</t>
+  </si>
+  <si>
+    <t>47753</t>
+  </si>
+  <si>
+    <t>47764</t>
+  </si>
+  <si>
+    <t>47765</t>
+  </si>
+  <si>
+    <t>47758</t>
+  </si>
+  <si>
+    <t>47777</t>
+  </si>
+  <si>
+    <t>47778</t>
+  </si>
+  <si>
+    <t>47769</t>
+  </si>
+  <si>
+    <t>47770</t>
+  </si>
+  <si>
+    <t>47760</t>
+  </si>
+  <si>
+    <t>47761</t>
+  </si>
+  <si>
+    <t>47749</t>
+  </si>
+  <si>
+    <t>47750</t>
+  </si>
+  <si>
+    <t>47728</t>
+  </si>
+  <si>
+    <t>47694</t>
+  </si>
+  <si>
+    <t>47700</t>
+  </si>
+  <si>
+    <t>47701</t>
+  </si>
+  <si>
+    <t>47707</t>
+  </si>
+  <si>
+    <t>47698</t>
+  </si>
+  <si>
+    <t>47699</t>
+  </si>
+  <si>
+    <t>47739</t>
+  </si>
+  <si>
+    <t>47740</t>
+  </si>
+  <si>
+    <t>47751</t>
+  </si>
+  <si>
+    <t>47767</t>
+  </si>
+  <si>
+    <t>47768</t>
+  </si>
+  <si>
+    <t>47776</t>
+  </si>
+  <si>
+    <t>47766</t>
+  </si>
+  <si>
+    <t>47781</t>
+  </si>
+  <si>
+    <t>47782</t>
+  </si>
+  <si>
+    <t>47787</t>
+  </si>
+  <si>
+    <t>47788</t>
+  </si>
+  <si>
+    <t>47773</t>
+  </si>
+  <si>
+    <t>47774</t>
+  </si>
+  <si>
+    <t>47779</t>
+  </si>
+  <si>
+    <t>47780</t>
+  </si>
+  <si>
+    <t>47771</t>
+  </si>
+  <si>
+    <t>47772</t>
+  </si>
+  <si>
+    <t>47725</t>
+  </si>
+  <si>
+    <t>47717</t>
+  </si>
+  <si>
+    <t>47721</t>
+  </si>
+  <si>
+    <t>47693</t>
+  </si>
+  <si>
+    <t>47690</t>
+  </si>
+  <si>
+    <t>47691</t>
+  </si>
+  <si>
+    <t>47673</t>
+  </si>
+  <si>
+    <t>47684</t>
+  </si>
+  <si>
+    <t>47685</t>
+  </si>
+  <si>
+    <t>47677</t>
+  </si>
+  <si>
+    <t>47679</t>
+  </si>
+  <si>
+    <t>47703</t>
+  </si>
+  <si>
+    <t>47709</t>
+  </si>
+  <si>
+    <t>47718</t>
+  </si>
+  <si>
+    <t>47692</t>
+  </si>
+  <si>
+    <t>47683</t>
+  </si>
+  <si>
+    <t>47682</t>
+  </si>
+  <si>
+    <t>47686</t>
+  </si>
+  <si>
+    <t>47687</t>
+  </si>
+  <si>
+    <t>47678</t>
+  </si>
+  <si>
+    <t>47719</t>
+  </si>
+  <si>
+    <t>47710</t>
+  </si>
+  <si>
+    <t>47720</t>
+  </si>
+  <si>
+    <t>47732</t>
+  </si>
+  <si>
+    <t>47733</t>
+  </si>
+  <si>
+    <t>47734</t>
+  </si>
+  <si>
+    <t>47759</t>
+  </si>
+  <si>
+    <t>47762</t>
+  </si>
+  <si>
+    <t>47763</t>
+  </si>
+  <si>
+    <t>47688</t>
+  </si>
+  <si>
+    <t>47660</t>
+  </si>
+  <si>
+    <t>47662</t>
+  </si>
+  <si>
+    <t>47644</t>
+  </si>
+  <si>
+    <t>47645</t>
+  </si>
+  <si>
+    <t>47646</t>
+  </si>
+  <si>
+    <t>47647</t>
+  </si>
+  <si>
+    <t>47655</t>
+  </si>
+  <si>
+    <t>47656</t>
+  </si>
+  <si>
+    <t>47657</t>
+  </si>
+  <si>
+    <t>47658</t>
+  </si>
+  <si>
+    <t>47652</t>
+  </si>
+  <si>
+    <t>47653</t>
+  </si>
+  <si>
+    <t>47651</t>
+  </si>
+  <si>
+    <t>47637</t>
+  </si>
+  <si>
+    <t>47638</t>
+  </si>
+  <si>
+    <t>47640</t>
+  </si>
+  <si>
+    <t>47641</t>
+  </si>
+  <si>
+    <t>47616</t>
+  </si>
+  <si>
+    <t>47617</t>
+  </si>
+  <si>
+    <t>47607</t>
+  </si>
+  <si>
+    <t>47585</t>
+  </si>
+  <si>
+    <t>47589</t>
+  </si>
+  <si>
+    <t>47582</t>
+  </si>
+  <si>
+    <t>47583</t>
+  </si>
+  <si>
+    <t>47544</t>
+  </si>
+  <si>
+    <t>47535</t>
+  </si>
+  <si>
+    <t>47577</t>
+  </si>
+  <si>
+    <t>47590</t>
+  </si>
+  <si>
+    <t>47587</t>
+  </si>
+  <si>
+    <t>47588</t>
+  </si>
+  <si>
+    <t>47611</t>
+  </si>
+  <si>
+    <t>47622</t>
+  </si>
+  <si>
+    <t>47643</t>
+  </si>
+  <si>
+    <t>47631</t>
+  </si>
+  <si>
+    <t>47632</t>
+  </si>
+  <si>
+    <t>47639</t>
+  </si>
+  <si>
+    <t>47659</t>
+  </si>
+  <si>
+    <t>47666</t>
+  </si>
+  <si>
+    <t>47667</t>
+  </si>
+  <si>
+    <t>47654</t>
+  </si>
+  <si>
+    <t>47628</t>
+  </si>
+  <si>
+    <t>47630</t>
+  </si>
+  <si>
+    <t>47635</t>
+  </si>
+  <si>
+    <t>47636</t>
+  </si>
+  <si>
+    <t>47612</t>
+  </si>
+  <si>
+    <t>47614</t>
+  </si>
+  <si>
+    <t>47613</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2844,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2867"/>
+  <dimension ref="A1:B3856"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -25225,6 +25783,7918 @@
         <v>625</v>
       </c>
     </row>
+    <row r="2868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2868" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2868" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2869" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2869" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2870" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2870" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2871" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2871" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2872" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2872" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2873" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2873" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2874" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2874" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2875" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2875" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2876" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2876" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2877" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2877" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2878" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2878" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2879" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2879" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2880" t="s">
+        <v>624</v>
+      </c>
+      <c r="B2880" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2881" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2881" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2882" t="s">
+        <v>492</v>
+      </c>
+      <c r="B2882" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2883" t="s">
+        <v>632</v>
+      </c>
+      <c r="B2883" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2884" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2884" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2885" t="s">
+        <v>637</v>
+      </c>
+      <c r="B2885" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2886" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2886" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2887" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2887" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2888" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2888" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2889" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2889" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2890" t="s">
+        <v>625</v>
+      </c>
+      <c r="B2890" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2891" t="s">
+        <v>617</v>
+      </c>
+      <c r="B2891" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2892" t="s">
+        <v>613</v>
+      </c>
+      <c r="B2892" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2893" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2893" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2894" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2894" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2895" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2895" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2896" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2896" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2897" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2897" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2898" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2898" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2899" t="s">
+        <v>619</v>
+      </c>
+      <c r="B2899" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2900" t="s">
+        <v>615</v>
+      </c>
+      <c r="B2900" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2901" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2901" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2902" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2902" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2903" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2903" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2904" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2904" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2905" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2905" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2906" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2906" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2907" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2907" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2908" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2908" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2909" t="s">
+        <v>644</v>
+      </c>
+      <c r="B2909" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2910" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2910" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2911" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2911" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2912" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2912" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2913" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2913" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2914" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2914" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2915" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2915" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2916" t="s">
+        <v>653</v>
+      </c>
+      <c r="B2916" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2917" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2917" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2918" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2918" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2919" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2919" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2920" t="s">
+        <v>652</v>
+      </c>
+      <c r="B2920" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2921" t="s">
+        <v>638</v>
+      </c>
+      <c r="B2921" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2922" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2922" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2923" t="s">
+        <v>657</v>
+      </c>
+      <c r="B2923" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2924" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2924" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2925" t="s">
+        <v>661</v>
+      </c>
+      <c r="B2925" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2926" t="s">
+        <v>663</v>
+      </c>
+      <c r="B2926" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2927" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2927" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2928" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2928" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2929" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2929" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2930" t="s">
+        <v>671</v>
+      </c>
+      <c r="B2930" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2931" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2931" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2932" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2932" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2933" t="s">
+        <v>677</v>
+      </c>
+      <c r="B2933" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2934" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2934" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2935" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2935" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2936" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2936" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2937" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2937" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2938" t="s">
+        <v>683</v>
+      </c>
+      <c r="B2938" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2939" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2939" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2940" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2940" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2941" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2941" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2942" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2942" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2943" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2943" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2944" t="s">
+        <v>695</v>
+      </c>
+      <c r="B2944" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2945" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2945" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2946" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2946" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2947" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2947" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2948" t="s">
+        <v>699</v>
+      </c>
+      <c r="B2948" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2949" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2949" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2950" t="s">
+        <v>701</v>
+      </c>
+      <c r="B2950" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2951" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2951" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2952" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2952" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2953" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2953" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2954" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2954" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2955" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2955" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2956" t="s">
+        <v>673</v>
+      </c>
+      <c r="B2956" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2957" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2957" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2958" t="s">
+        <v>704</v>
+      </c>
+      <c r="B2958" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2959" t="s">
+        <v>710</v>
+      </c>
+      <c r="B2959" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2960" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2961" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2962" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2963" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2964" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2965" t="s">
+        <v>693</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2966" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2967" t="s">
+        <v>719</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2968" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2969" t="s">
+        <v>720</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2970" t="s">
+        <v>689</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2971" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2972" t="s">
+        <v>723</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2973" t="s">
+        <v>679</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2974" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2975" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2976" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2977" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2978" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2979" t="s">
+        <v>686</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2980" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2981" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2982" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2983" t="s">
+        <v>705</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2984" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2985" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2986" t="s">
+        <v>727</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2987" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2988" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2989" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2990" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2991" t="s">
+        <v>703</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2992" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2993" t="s">
+        <v>729</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2994" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2995" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2996" t="s">
+        <v>708</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2997" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2998" t="s">
+        <v>730</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2999" t="s">
+        <v>732</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3000" t="s">
+        <v>734</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3001" t="s">
+        <v>736</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3002" t="s">
+        <v>738</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3003" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3004" t="s">
+        <v>713</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3005" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3006" t="s">
+        <v>740</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3007" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3008" t="s">
+        <v>708</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3009" t="s">
+        <v>700</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3010" t="s">
+        <v>697</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3011" t="s">
+        <v>693</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3012" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3013" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3014" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3015" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3016" t="s">
+        <v>744</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3017" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3018" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3019" t="s">
+        <v>745</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3020" t="s">
+        <v>672</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3021" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3022" t="s">
+        <v>667</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3023" t="s">
+        <v>664</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3024" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3025" t="s">
+        <v>749</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3026" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3027" t="s">
+        <v>666</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3028" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3029" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3030" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3031" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3032" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3033" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3034" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3035" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3036" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3037" t="s">
+        <v>743</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3038" t="s">
+        <v>690</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3039" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3040" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3041" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3042" t="s">
+        <v>745</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3043" t="s">
+        <v>669</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3044" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3045" t="s">
+        <v>757</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3046" t="s">
+        <v>749</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3047" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3048" t="s">
+        <v>759</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3049" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3050" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3051" t="s">
+        <v>752</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3052" t="s">
+        <v>761</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3053" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3054" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3055" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3056" t="s">
+        <v>722</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3057" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3058" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3059" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3060" t="s">
+        <v>722</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3061" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3062" t="s">
+        <v>692</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3063" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3064" t="s">
+        <v>754</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3065" t="s">
+        <v>678</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3066" t="s">
+        <v>763</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3067" t="s">
+        <v>764</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3068" t="s">
+        <v>696</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3069" t="s">
+        <v>685</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3070" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3071" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3072" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3073" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3074" t="s">
+        <v>702</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3075" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3076" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3077" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3078" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3079" t="s">
+        <v>709</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3080" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3081" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3082" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3083" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3084" t="s">
+        <v>707</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3085" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3086" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3087" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3088" t="s">
+        <v>675</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3089" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3090" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3091" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3092" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3093" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3094" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3095" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3096" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3097" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3098" t="s">
+        <v>747</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3099" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3100" t="s">
+        <v>724</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3101" t="s">
+        <v>720</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3102" t="s">
+        <v>760</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3103" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3104" t="s">
+        <v>757</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3105" t="s">
+        <v>750</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3106" t="s">
+        <v>666</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3107" t="s">
+        <v>761</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3108" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3109" t="s">
+        <v>663</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3110" t="s">
+        <v>774</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3111" t="s">
+        <v>776</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3112" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3113" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3114" t="s">
+        <v>779</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3115" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3116" t="s">
+        <v>784</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3117" t="s">
+        <v>779</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3118" t="s">
+        <v>785</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3119" t="s">
+        <v>787</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3120" t="s">
+        <v>789</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3121" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3122" t="s">
+        <v>655</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3123" t="s">
+        <v>652</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3124" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3125" t="s">
+        <v>792</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3126" t="s">
+        <v>794</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3127" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3128" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3129" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3130" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3131" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3132" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3133" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3134" t="s">
+        <v>541</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3135" t="s">
+        <v>797</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3136" t="s">
+        <v>507</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3137" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3138" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3139" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3140" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3141" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3142" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3143" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3144" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3145" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3146" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3147" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3148" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3149" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3150" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3151" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3152" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3153" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3154" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3155" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3156" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3157" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3158" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3159" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3160" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3161" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3162" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3163" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3164" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3165" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3166" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3167" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3168" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3169" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3170" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3171" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3172" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3173" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3174" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3175" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3176" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3177" t="s">
+        <v>637</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3178" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3179" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3180" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3181" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3182" t="s">
+        <v>605</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3183" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3184" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3185" t="s">
+        <v>629</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3186" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3187" t="s">
+        <v>798</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3188" t="s">
+        <v>793</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3189" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3190" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3191" t="s">
+        <v>800</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3192" t="s">
+        <v>617</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3193" t="s">
+        <v>622</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3194" t="s">
+        <v>800</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3195" t="s">
+        <v>641</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3196" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3197" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3198" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3199" t="s">
+        <v>793</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3200" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3201" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3202" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3203" t="s">
+        <v>652</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3204" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3205" t="s">
+        <v>643</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3206" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3207" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3208" t="s">
+        <v>640</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3209" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3210" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3211" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3212" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3213" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3214" t="s">
+        <v>775</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3215" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3216" t="s">
+        <v>782</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3217" t="s">
+        <v>808</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3218" t="s">
+        <v>809</v>
+      </c>
+      <c r="B3218" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3219" t="s">
+        <v>811</v>
+      </c>
+      <c r="B3219" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3220" t="s">
+        <v>812</v>
+      </c>
+      <c r="B3220" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3221" t="s">
+        <v>814</v>
+      </c>
+      <c r="B3221" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3222" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3222" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3223" t="s">
+        <v>657</v>
+      </c>
+      <c r="B3223" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3224" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3224" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3225" t="s">
+        <v>802</v>
+      </c>
+      <c r="B3225" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3226" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3226" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3227" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3227" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3228" t="s">
+        <v>817</v>
+      </c>
+      <c r="B3228" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3229" t="s">
+        <v>818</v>
+      </c>
+      <c r="B3229" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3230" t="s">
+        <v>817</v>
+      </c>
+      <c r="B3230" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3231" t="s">
+        <v>817</v>
+      </c>
+      <c r="B3231" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3232" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3232" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3233" t="s">
+        <v>638</v>
+      </c>
+      <c r="B3233" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3234" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3234" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3235" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3235" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3236" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3236" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3237" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3237" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3238" t="s">
+        <v>632</v>
+      </c>
+      <c r="B3238" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3239" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3239" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3240" t="s">
+        <v>549</v>
+      </c>
+      <c r="B3240" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3241" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3241" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3242" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3242" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3243" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3243" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3244" t="s">
+        <v>517</v>
+      </c>
+      <c r="B3244" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3245" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3245" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3246" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3246" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3247" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3247" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3248" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3248" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3249" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3249" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3250" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3250" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3251" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3251" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3252" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3252" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3253" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3253" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3254" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3254" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3255" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3255" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3256" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3256" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3257" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3257" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3258" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3258" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3259" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3259" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3260" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3260" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3261" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3261" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3262" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3262" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3263" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3263" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3264" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3264" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3265" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3265" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3266" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3266" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3267" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3267" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3268" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3268" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3269" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3269" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3270" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3270" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3271" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3271" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3272" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3272" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3273" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3273" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3274" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3274" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3275" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3275" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3276" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3276" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3277" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3277" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3278" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3278" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3279" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3279" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3280" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3280" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3281" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3281" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3282" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3282" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3283" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3283" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3284" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3284" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3285" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3285" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3286" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3286" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3287" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3287" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3288" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3288" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3289" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3289" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3290" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3290" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3291" t="s">
+        <v>602</v>
+      </c>
+      <c r="B3291" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3292" t="s">
+        <v>633</v>
+      </c>
+      <c r="B3292" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3293" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3293" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3294" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3294" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3295" t="s">
+        <v>636</v>
+      </c>
+      <c r="B3295" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3296" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3296" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3297" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3297" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3298" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3298" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3299" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3299" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3300" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3300" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3301" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3301" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3302" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3302" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3303" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3303" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3304" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3304" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3305" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3305" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3306" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3306" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3307" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3307" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3308" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3308" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3309" t="s">
+        <v>511</v>
+      </c>
+      <c r="B3309" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3310" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3310" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3311" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3311" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3312" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3312" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3313" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3313" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3314" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3314" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3315" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3315" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3316" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3316" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3317" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3317" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3318" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3318" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3319" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3319" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3320" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3320" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3321" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3321" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3322" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3322" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3323" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3323" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3324" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3324" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3325" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3325" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3326" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3326" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3327" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3327" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3328" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3328" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3329" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3329" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3330" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3330" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3331" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3331" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3332" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3332" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3333" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3333" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3334" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3334" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3335" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3335" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3336" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3336" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3337" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3337" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3338" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3338" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3339" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3339" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3340" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3340" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3341" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3341" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3342" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3342" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3343" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3343" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3344" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3344" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3345" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3345" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3346" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3346" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3347" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3347" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3348" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3348" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3349" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3349" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3350" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3350" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3351" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3351" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3352" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3352" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3353" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3353" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3354" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3354" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3355" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3355" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3356" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3356" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3357" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3357" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3358" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3358" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3359" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3359" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3360" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3360" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3361" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3361" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3362" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3362" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3363" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3363" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3364" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3364" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3365" t="s">
+        <v>567</v>
+      </c>
+      <c r="B3365" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3366" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3366" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3367" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3367" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3368" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3368" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3369" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3369" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3370" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3370" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3371" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3371" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3372" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3372" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3373" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3373" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3374" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3374" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3375" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3375" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3376" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3376" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3377" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3377" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3378" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3378" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3379" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3379" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3380" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3380" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3381" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3381" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3382" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3382" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3383" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3383" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3384" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3384" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3385" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3385" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3386" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3386" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3387" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3387" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3388" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3388" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3389" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3389" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3390" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3390" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3391" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3391" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3392" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3392" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3393" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3393" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3394" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3394" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3395" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3395" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3396" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3396" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3397" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3397" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3398" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3398" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3399" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3399" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3400" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3400" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3401" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3401" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3402" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3402" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3403" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3403" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3404" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3404" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3405" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3405" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3406" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3406" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3407" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3407" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3408" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3408" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3409" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3409" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3410" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3410" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3411" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3411" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3412" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3412" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3413" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3413" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3414" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3414" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3415" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3415" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3416" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3416" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3417" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3417" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3418" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3418" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3419" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3419" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3420" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3420" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3421" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3421" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3422" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3422" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3423" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3423" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3424" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3424" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3425" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3425" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3426" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3426" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3427" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3427" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3428" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3428" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3429" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3429" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3430" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3430" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3431" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3431" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3432" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3432" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3433" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3433" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3434" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3434" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3435" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3435" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3436" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3436" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3437" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3437" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3438" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3438" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3439" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3439" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3440" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3440" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3441" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3441" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3442" t="s">
+        <v>586</v>
+      </c>
+      <c r="B3442" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3443" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3443" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3444" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3444" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3445" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3445" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3446" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3446" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3447" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3447" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3448" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3448" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3449" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3449" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3450" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3450" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3451" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3451" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3452" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3452" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3453" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3453" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3454" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3454" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3455" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3455" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3456" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3456" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3457" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3457" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3458" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3458" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3459" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3459" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3460" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3460" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3461" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3461" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3462" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3462" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3463" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3464" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3464" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3465" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3465" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3466" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3466" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3467" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3467" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3468" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3468" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3469" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3469" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3470" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3470" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3471" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3471" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3472" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3472" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3473" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3473" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3474" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3474" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3475" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3475" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3476" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3476" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3477" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3477" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3478" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3478" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3479" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3479" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3480" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3480" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3481" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3481" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3482" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3482" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3483" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3483" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3484" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3484" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3485" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3485" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3486" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3486" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3487" t="s">
+        <v>571</v>
+      </c>
+      <c r="B3487" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3488" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3488" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3489" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3489" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3490" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3490" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3491" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3491" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3492" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3492" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3493" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3493" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3494" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3494" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3495" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3495" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3496" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3496" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3497" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3497" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3498" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3498" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3499" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3499" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3500" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3500" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3501" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3501" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3502" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3502" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3503" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3503" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3504" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3504" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3505" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3505" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3506" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3506" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3507" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3507" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3508" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3508" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3509" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3509" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3510" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3510" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3511" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3511" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3512" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3512" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3513" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3513" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3514" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3514" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3515" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3515" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3516" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3516" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3517" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3517" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3518" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3518" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3519" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3519" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3520" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3520" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3521" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3521" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3522" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3522" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3523" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3523" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3524" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3524" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3525" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3525" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3526" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3526" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3527" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3527" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3528" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3528" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3529" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3529" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3530" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3530" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3531" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3531" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3532" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3532" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3533" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3533" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3534" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3534" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3535" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3535" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3536" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3536" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3537" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3537" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3538" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3538" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3539" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3539" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3540" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3540" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3541" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3541" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3542" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3542" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3543" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3543" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3544" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3544" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3545" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3545" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3546" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3546" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3547" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3547" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3548" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3548" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3549" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3549" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3550" t="s">
+        <v>344</v>
+      </c>
+      <c r="B3550" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3551" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3551" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3552" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3552" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3553" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3553" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3554" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3554" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3555" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3555" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3556" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3556" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3557" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3557" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3558" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3558" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3559" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3559" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3560" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3560" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3561" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3561" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3562" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3562" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3563" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3563" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3564" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3564" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3565" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3565" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3566" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3566" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3567" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3567" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3568" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3568" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3569" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3569" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3570" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3570" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3571" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3571" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3572" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3572" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3573" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3573" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3574" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3574" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3575" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3575" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3576" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3576" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3577" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3577" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3578" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3578" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3579" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3579" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3580" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3580" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3581" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3581" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3582" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3583" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3583" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3584" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3584" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3585" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3585" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3586" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3586" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3587" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3587" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3588" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3588" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3589" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3589" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3590" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3590" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3591" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3591" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3592" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3592" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3593" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3593" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3594" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3594" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3595" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3595" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3596" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3596" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3597" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3598" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3598" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3599" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3599" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3600" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3600" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3601" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3602" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3602" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3603" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3603" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3604" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3604" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3605" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3605" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3606" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3606" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3607" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3607" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3608" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3608" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3609" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3609" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3610" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3610" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3611" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3611" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3612" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3612" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3613" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3613" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3614" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3614" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3615" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3615" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3616" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3616" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3617" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3618" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3618" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3619" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3619" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3620" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3621" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3621" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3622" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3622" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3623" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3623" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3624" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3625" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3625" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3626" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3626" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3627" t="s">
+        <v>392</v>
+      </c>
+      <c r="B3627" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3628" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3628" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3629" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3630" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3630" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3631" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3631" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3632" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3632" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3633" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3633" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3634" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3634" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3635" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3635" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3636" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3636" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3637" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3637" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3638" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3638" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3639" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3639" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3640" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3640" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3641" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3641" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3642" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3642" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3643" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3643" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3644" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3644" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3645" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3645" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3646" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3646" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3647" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3647" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3648" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3648" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3649" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3649" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3650" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3650" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3651" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3651" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3652" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3652" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3653" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3653" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3654" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3654" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3655" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3655" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3656" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3656" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3657" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3657" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3658" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3658" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3659" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3659" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3660" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3660" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3661" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3661" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3662" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3662" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3663" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3663" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3664" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3664" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3665" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3665" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3666" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3666" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3667" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3667" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3668" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3668" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3669" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3669" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3670" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3670" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3671" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3671" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3672" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3672" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3673" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3673" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3674" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3674" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3675" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3675" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3676" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3676" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3677" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3677" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3678" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3678" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3679" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3679" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3680" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3680" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3681" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3681" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3682" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3682" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3683" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3683" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3684" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3684" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3685" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3685" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3686" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3686" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3687" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3687" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3688" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3688" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3689" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3689" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3690" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3690" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3691" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3691" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3692" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3692" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3693" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3693" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3694" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3694" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3695" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3695" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3696" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3696" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3697" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3697" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3698" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3698" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3699" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3699" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3700" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3700" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3701" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3701" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3702" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3702" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3703" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3703" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3704" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3704" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3705" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3705" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3706" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3706" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3707" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3707" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3708" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3708" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3709" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3709" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3710" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3710" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3711" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3711" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3712" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3712" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3713" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3713" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3714" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3714" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3715" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3715" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3716" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3716" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3717" t="s">
+        <v>440</v>
+      </c>
+      <c r="B3717" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3718" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3718" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3719" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3719" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3720" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3720" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3721" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3721" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3722" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3722" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3723" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3723" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3724" t="s">
+        <v>437</v>
+      </c>
+      <c r="B3724" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3725" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3725" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3726" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3726" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3727" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3727" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3728" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3728" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3729" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3729" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3730" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3730" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3731" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3731" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3732" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3732" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3733" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3733" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3734" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3734" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3735" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3735" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3736" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3736" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3737" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3737" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3738" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3738" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3739" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3739" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3740" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3740" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3741" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3741" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3742" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3742" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3743" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3743" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3744" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3744" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3745" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3745" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3746" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3746" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3747" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3747" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3748" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3748" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3749" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3749" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3750" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3750" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3751" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3751" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3752" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3752" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3753" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3753" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3754" t="s">
+        <v>345</v>
+      </c>
+      <c r="B3754" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3755" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3755" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3756" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3756" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3757" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3757" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3758" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3758" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3759" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3759" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3760" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3760" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3761" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3761" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3762" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3762" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3763" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3763" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3764" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3764" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3765" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3765" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3766" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3766" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3767" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3767" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3768" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3768" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3769" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3769" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3770" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3770" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3771" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3771" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3772" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3772" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3773" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3773" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3774" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3774" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3775" t="s">
+        <v>600</v>
+      </c>
+      <c r="B3775" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3776" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3776" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3777" t="s">
+        <v>585</v>
+      </c>
+      <c r="B3777" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3778" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3778" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3779" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3779" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3780" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3780" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3781" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3781" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3782" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3782" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3783" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3783" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3784" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3784" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3785" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3785" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3786" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3786" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3787" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3787" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3788" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3788" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3789" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3789" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3790" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3790" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3791" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3791" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3792" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3792" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3793" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3793" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3794" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3794" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3795" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3795" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3796" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3796" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3797" t="s">
+        <v>579</v>
+      </c>
+      <c r="B3797" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3798" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3798" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3799" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3799" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3800" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3800" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3801" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3801" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3802" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3802" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3803" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3803" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3804" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3804" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3805" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3805" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3806" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3806" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3807" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3807" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3808" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3808" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3809" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3809" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3810" t="s">
+        <v>454</v>
+      </c>
+      <c r="B3810" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3811" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3811" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3812" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3812" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3813" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3813" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>528</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>464</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>425</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>535</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
